--- a/WS_specialchem/input.xlsx
+++ b/WS_specialchem/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ghub_acceval\smarttradzt-python-services\WS_specialchem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FCF0DD-CABD-4CEE-8907-715BD6830B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD03EE-2868-4F3C-A290-6B3B1033AE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32040" yWindow="3210" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
@@ -36,10 +36,10 @@
     <t>Tape Adhesives</t>
   </si>
   <si>
-    <t>polymers</t>
+    <t>https://omnexus.specialchem.com/selectors/c-thermoplastics-3d-printing-polymers-photopolymers</t>
   </si>
   <si>
-    <t>https://omnexus.specialchem.com/selectors/c-thermoplastics-3d-printing-polymers-photopolymers</t>
+    <t>Thermoplastics_3D Printing Polymers_Photopolymers</t>
   </si>
 </sst>
 </file>
@@ -63,13 +63,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -83,8 +76,15 @@
       <color rgb="FF333333"/>
       <name val="Nexa"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3B3938"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,12 +94,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -127,20 +121,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="60% - Accent2" xfId="2" builtinId="36"/>
+  <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -423,7 +415,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -440,253 +432,253 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="3"/>
+      <c r="A61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WS_specialchem/input.xlsx
+++ b/WS_specialchem/input.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ghub_acceval\smarttradzt-python-services\WS_specialchem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFD03EE-2868-4F3C-A290-6B3B1033AE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9073C8AC-44C6-4501-A7F9-8D4CD2EF3E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="11" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet1 (4)" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet1 (5)" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Put websites to scrape below:</t>
   </si>
@@ -39,7 +43,34 @@
     <t>https://omnexus.specialchem.com/selectors/c-thermoplastics-3d-printing-polymers-photopolymers</t>
   </si>
   <si>
-    <t>Thermoplastics_3D Printing Polymers_Photopolymers</t>
+    <t>Thermoplastics_3D Printing Polymers_Photopolymerstemp</t>
+  </si>
+  <si>
+    <t>https://omnexus.specialchem.com/selectors/c-thermoplastics-aes-acrylonitrile-ethylene-styrene</t>
+  </si>
+  <si>
+    <t>Acrylonitrile Ethylene Styrenetemp</t>
+  </si>
+  <si>
+    <t>Thermosets DCPD_DiCycloPentadiene Resin</t>
+  </si>
+  <si>
+    <t>https://omnexus.specialchem.com/selectors/c-thermosets-dcpd-dicyclopentadiene-resin</t>
+  </si>
+  <si>
+    <t>TPEsTPVs_PEBA_Polyether Block Amide_PEBA or COPA</t>
+  </si>
+  <si>
+    <t>https://omnexus.specialchem.com/selectors/c-tpes-tpvs-peba-polyether-block-amide-peba-or-copa</t>
+  </si>
+  <si>
+    <t>https://omnexus.specialchem.com/selectors/c-tpes-tpvs-polyester-tpe-tpee</t>
+  </si>
+  <si>
+    <t>TPEsTPVs  Polyester TPE _TPEE</t>
+  </si>
+  <si>
+    <t>continue at 38</t>
   </si>
 </sst>
 </file>
@@ -415,7 +446,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -433,7 +464,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -442,7 +473,1114 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C97B4B1-A570-4222-8B09-B61134217972}">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="101.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1D2451-6C85-4C4E-B512-CFE7AE05B940}">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="101.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4005D9-0A14-483E-AD6A-A93D04D6B4E5}">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="101.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF7E3FB-440E-4609-85FF-9824522105E9}">
+  <dimension ref="A1:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="101.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
